--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_11-13.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_11-13.xlsx
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>0:2</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
@@ -725,7 +728,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -745,13 +748,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -763,7 +766,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -771,17 +774,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>31.359999999999999</v>
+        <v>39</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -789,7 +792,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -797,51 +800,77 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>20</v>
+        <v>31.359999999999999</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c t="s" r="B10" s="7">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c t="s" r="H10" s="8">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" ht="26.25" customHeight="1">
-      <c r="K10" s="10">
-        <v>216.36000000000001</v>
-      </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="11">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9">
+        <v>20</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c t="s" r="N10" s="7">
         <v>22</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c t="s" r="F11" s="12">
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="K11" s="10">
+        <v>264.36000000000001</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="11">
         <v>23</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c t="s" r="I11" s="14">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c t="s" r="F12" s="12">
         <v>24</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c t="s" r="I12" s="14">
+        <v>25</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="32">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -867,10 +896,13 @@
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:N12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
